--- a/利润表/300027.xlsx
+++ b/利润表/300027.xlsx
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>828283901.48</v>
+        <v>-1168658269.12</v>
       </c>
       <c r="P2" t="n">
-        <v>3946276083.68</v>
+        <v>3814468574.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>3746833074.68</v>
+        <v>3719126624</v>
       </c>
       <c r="R2" t="n">
-        <v>16.8661702125</v>
+        <v>-0.7394631714</v>
       </c>
       <c r="S2" t="n">
-        <v>2152616127.64</v>
+        <v>2147242828.95</v>
       </c>
       <c r="T2" t="n">
-        <v>2152616127.64</v>
+        <v>2147242828.95</v>
       </c>
       <c r="U2" t="n">
-        <v>25.8583738395</v>
+        <v>-0.2496171343</v>
       </c>
       <c r="V2" t="n">
-        <v>725481461.1900001</v>
+        <v>651267016.92</v>
       </c>
       <c r="W2" t="n">
-        <v>558034208.76</v>
+        <v>528325265.68</v>
       </c>
       <c r="X2" t="n">
-        <v>290107900.42</v>
+        <v>328884229.23</v>
       </c>
       <c r="Y2" t="n">
-        <v>689110629.08</v>
+        <v>-935384416.33</v>
       </c>
       <c r="Z2" t="n">
-        <v>1075289655.55</v>
+        <v>-876133105.46</v>
       </c>
       <c r="AA2" t="n">
-        <v>88243459.09999999</v>
+        <v>108389636.21</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>20593376.67</v>
+        <v>15450349.44</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>12.6394808484</v>
+        <v>-3.3400478541</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-30.679495821418</v>
+        <v>-235.737917376023</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.493382880961</v>
+        <v>-241.093925287188</v>
       </c>
       <c r="AS2" t="n">
-        <v>131050060.62</v>
+        <v>-1181283529.76</v>
       </c>
       <c r="AT2" t="n">
-        <v>426.134839833934</v>
+        <v>-1001.39869006647</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/300027.xlsx
+++ b/利润表/300027.xlsx
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-1168658269.12</v>
+        <v>-3977691690.71</v>
       </c>
       <c r="P2" t="n">
-        <v>3814468574.03</v>
+        <v>2243545641.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>3719126624</v>
+        <v>2862183889.56</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.7394631714</v>
+        <v>-23.0415046616</v>
       </c>
       <c r="S2" t="n">
-        <v>2147242828.95</v>
+        <v>1607583269.32</v>
       </c>
       <c r="T2" t="n">
-        <v>2147242828.95</v>
+        <v>1607583269.32</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.2496171343</v>
+        <v>-25.1326749054</v>
       </c>
       <c r="V2" t="n">
-        <v>651267016.92</v>
+        <v>379786578.71</v>
       </c>
       <c r="W2" t="n">
-        <v>528325265.68</v>
+        <v>474763697.82</v>
       </c>
       <c r="X2" t="n">
-        <v>328884229.23</v>
+        <v>323002627.82</v>
       </c>
       <c r="Y2" t="n">
-        <v>-935384416.33</v>
+        <v>-3814499435.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>-876133105.46</v>
+        <v>-3764160557.47</v>
       </c>
       <c r="AA2" t="n">
-        <v>108389636.21</v>
+        <v>276285937.88</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>15450349.44</v>
+        <v>13074207.97</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-3.3400478541</v>
+        <v>-41.183271055</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-235.737917376023</v>
+        <v>-307.800190863374</v>
       </c>
       <c r="AR2" t="n">
-        <v>-241.093925287188</v>
+        <v>-240.363970872786</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1181283529.76</v>
+        <v>-3982881065.78</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1001.39869006647</v>
+        <v>-235.697907242106</v>
       </c>
     </row>
   </sheetData>
